--- a/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsSetResetPowerReport.xlsx
+++ b/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsSetResetPowerReport.xlsx
@@ -175,7 +175,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>3.565085989976069E-6</v>
+        <v>3.504660980979679E-6</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -201,16 +201,16 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>3.494482598398463E-6</v>
+        <v>3.435254257055931E-6</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>4.137930870056152</v>
+        <v>4.0677971839904785</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>1.862069010734558</v>
+        <v>1.8305089473724365</v>
       </c>
       <c r="E3" t="n" s="7">
         <v>37.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>7.060344842102495E-8</v>
+        <v>6.940678076716722E-8</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>0.17241400480270386</v>
+        <v>0.16949200630187988</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>4.31034517288208</v>
+        <v>4.237287998199463</v>
       </c>
       <c r="E4" t="n" s="7">
         <v>7.0</v>
